--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_65.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92), (10.36, 18.44)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58), (14.86, 17.32)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1378684807256236</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>[['F#:dim7', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(65.44, 69.18)]</t>
+          <t>[['E:dim7', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(22.82, 26.72)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:16.520000', '0:01:20.620000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:18.700000', '0:00:20.830000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
-        </is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1111969111969112</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(49.56, 53.54)]</t>
+          <t>[['Eb', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.552131, 21.36873)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:03.020000', '0:04:04.860000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(34.3, 49.84)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:11.380000'), ('0:00:16.040000', '0:00:18.720000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:20.800000', '0:01:31.180000'), ('0:01:19.040000', '0:01:26.540000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'G:7', 'G:7']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.126984126984127</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'C:7', 'C:7']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.200022, 29.031315)]</t>
+          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.821519, 31.53907)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:06.536000', '0:00:09.774000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08557692307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07500000000000001</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(48.6, 53.0)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.414, 17.044)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.44, 25.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(233.34, 249.14)]</t>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1240601503759398</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'B', 'E:min', 'G:7']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.46875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A:min', 'C:7']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(22.94, 29.304)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(69.817165, 75.355124)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_8</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01480131243164419</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Ab:maj6', 'Ab:maj6', 'Ab:maj6'], ['Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb:maj6', 'Bb:maj6', 'G:min7'], ['C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(188.53, 192.11), (33.28, 35.48)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(61.0, 62.52), (3.77, 5.85)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.6, 28.92)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Bb'], ['Bb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(48.170328, 55.589104), (49.981485, 59.292687), (26.041712, 37.10602)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.84, 26.98), (66.04, 68.54), (0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09260869565217392</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'D/2', 'D/3']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.64, 13.29)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(78.063729, 79.677517)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08027027027027027</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:hdim7', 'G:7', 'C:min7'], ['Bb:min7', 'Eb:7', 'Ab:maj7'], ['D:hdim7', 'G:(3,5,b7,b9)', 'C:min7']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:hdim7', 'C:7', 'F:min7'], ['Eb:min7', 'Ab:7', 'Db:maj7'], ['G:hdim7', 'C:(3,5,b7,b9)', 'F:min7']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(78.77, 82.54), (106.71, 112.34), (84.38, 91.79)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.74, 25.63), (16.6, 20.43), (7.73, 10.25)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2425876010781671</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'G/5', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.6, 66.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
